--- a/tech/android/PO/PO.xlsx
+++ b/tech/android/PO/PO.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying.cao/Documents/project/YingVickyCao.github.io/tech/android/PO/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5391B9A-63E9-E946-9E31-8C2844CB63B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="14400"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO" sheetId="19" r:id="rId1"/>
@@ -15,12 +21,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PO!$A$1:$J$28</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="288">
   <si>
     <t>NO.</t>
   </si>
@@ -185,7 +204,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ConstraintLayout </t>
     </r>
@@ -194,6 +213,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>代替</t>
@@ -203,7 +223,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> LinearLayout</t>
     </r>
@@ -258,6 +278,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -267,7 +288,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 getWindow().setBackgroundDrawable(null);</t>
@@ -299,6 +320,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>三级缓存：</t>
@@ -308,7 +330,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Memory -&gt; Local -&gt; Network</t>
     </r>
@@ -337,7 +359,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ListView </t>
     </r>
@@ -346,6 +368,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>等，</t>
@@ -355,7 +378,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">itemview </t>
     </r>
@@ -364,6 +387,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>如果比较复杂，使用自定义</t>
@@ -373,7 +397,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> View</t>
     </r>
@@ -382,6 +406,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>，使得</t>
@@ -391,7 +416,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> List </t>
     </r>
@@ -400,6 +425,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>滑动更流畅。</t>
@@ -420,7 +446,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>bitmap</t>
     </r>
@@ -429,6 +455,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>获取时才设置</t>
@@ -438,7 +465,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ImageView </t>
     </r>
@@ -447,6 +474,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>为</t>
@@ -456,7 +484,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Transparent</t>
     </r>
@@ -465,6 +493,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>，否则仅仅占位图片。</t>
@@ -509,6 +538,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Songti SC"/>
+        <family val="1"/>
         <charset val="134"/>
       </rPr>
       <t>变量长期持有大对象的引用</t>
@@ -1161,14 +1191,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1178,16 +1202,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1195,7 +1226,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1203,13 +1234,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1218,166 +1249,31 @@
       <sz val="12"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Songti SC"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Songti SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,7 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,188 +1322,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1759,253 +1475,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2040,292 +1517,224 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="10" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="15" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="17" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="18" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="19" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="21" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="22" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="23" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="24" builtinId="32"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="26" builtinId="42"/>
-    <cellStyle name="Total" xfId="27" builtinId="25"/>
-    <cellStyle name="Output" xfId="28" builtinId="21"/>
-    <cellStyle name="Currency" xfId="29" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="30" builtinId="38"/>
-    <cellStyle name="Note" xfId="31" builtinId="10"/>
-    <cellStyle name="Input" xfId="32" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
-    <cellStyle name="Good" xfId="35" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="36" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="37" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="39" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
-    <cellStyle name="Title" xfId="41" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="42" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="43" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="48" builtinId="40"/>
-    <cellStyle name="Percent" xfId="49" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="0000FA00"/>
+      <color rgb="FF00FA00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2583,3746 +1992,3725 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8285714285714" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8285714285714" style="25"/>
-    <col min="2" max="2" width="7.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.82857142857143" style="27" customWidth="1"/>
-    <col min="4" max="4" width="61" style="26" customWidth="1"/>
-    <col min="5" max="5" width="25.8285714285714" style="26" customWidth="1"/>
-    <col min="6" max="6" width="17.6642857142857" style="26" customWidth="1"/>
-    <col min="7" max="7" width="16.6642857142857" style="26" customWidth="1"/>
-    <col min="8" max="8" width="24.1642857142857" style="26" customWidth="1"/>
-    <col min="9" max="9" width="7.66428571428571" style="27" customWidth="1"/>
-    <col min="10" max="10" width="11.1642857142857" style="26" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="7.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="61" style="19" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="19" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="16384" width="10.8285714285714" style="26"/>
+    <col min="12" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="17" spans="1:11">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" s="19" customFormat="1" ht="38" hidden="1" spans="1:11">
-      <c r="A2" s="31">
-        <f t="shared" ref="A2:A26" si="0">ROW()-1</f>
+    <row r="2" spans="1:11" s="18" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29">
+        <f t="shared" ref="A2:A23" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="61"/>
+      <c r="J2" s="54"/>
       <c r="K2"/>
     </row>
-    <row r="3" s="20" customFormat="1" ht="57" hidden="1" spans="1:11">
-      <c r="A3" s="35">
+    <row r="3" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="81" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3"/>
-    </row>
-    <row r="4" s="20" customFormat="1" ht="38" hidden="1" spans="1:11">
-      <c r="A4" s="35">
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="81" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4"/>
-    </row>
-    <row r="5" s="20" customFormat="1" ht="38" hidden="1" spans="1:11">
-      <c r="A5" s="35">
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" s="20" customFormat="1" ht="38" hidden="1" spans="1:11">
-      <c r="A6" s="35">
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="81" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" s="20" customFormat="1" ht="38" hidden="1" spans="1:11">
-      <c r="A7" s="35">
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="81" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" s="20" customFormat="1" ht="38" hidden="1" spans="1:11">
-      <c r="A8" s="35">
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="81" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" ht="133" hidden="1" spans="1:10">
-      <c r="A9" s="35">
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="82" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="63"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="35">
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" s="20" customFormat="1" hidden="1" spans="1:11">
-      <c r="A11" s="42">
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="43" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K11"/>
-    </row>
-    <row r="12" s="20" customFormat="1" hidden="1" spans="1:11">
-      <c r="A12" s="44">
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12"/>
-    </row>
-    <row r="13" s="20" customFormat="1" hidden="1" spans="1:11">
-      <c r="A13" s="44">
+      <c r="J12" s="55"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="39">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" s="20" customFormat="1" ht="32" spans="1:11">
-      <c r="A14" s="35">
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="33" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="62"/>
-      <c r="K14"/>
-    </row>
-    <row r="15" s="20" customFormat="1" hidden="1" spans="1:11">
-      <c r="A15" s="35">
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15"/>
-    </row>
-    <row r="16" s="20" customFormat="1" ht="19" hidden="1" spans="1:11">
-      <c r="A16" s="35">
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:11" ht="19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" s="20" customFormat="1" ht="38" hidden="1" spans="1:11">
-      <c r="A17" s="35">
+      <c r="J16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="36" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" s="20" customFormat="1" hidden="1" spans="1:11">
-      <c r="A18" s="35">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" s="20" customFormat="1" ht="19" hidden="1" spans="1:11">
-      <c r="A19" s="35">
+      <c r="J18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19"/>
-    </row>
-    <row r="20" s="20" customFormat="1" ht="19" hidden="1" spans="1:11">
-      <c r="A20" s="35">
+      <c r="J19" s="55"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="62"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" s="20" customFormat="1" ht="19" hidden="1" spans="1:11">
-      <c r="A21" s="35">
+      <c r="J20" s="55"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" ht="38" hidden="1" spans="1:10">
-      <c r="A22" s="35">
+      <c r="J21" s="55"/>
+    </row>
+    <row r="22" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="82" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="63"/>
-    </row>
-    <row r="23" ht="19" hidden="1" spans="1:10">
-      <c r="A23" s="35">
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="82" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="63"/>
-    </row>
-    <row r="24" hidden="1" spans="1:10">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36" t="s">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="82" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="63"/>
-    </row>
-    <row r="25" ht="33" hidden="1" spans="1:10">
-      <c r="A25" s="35">
+      <c r="J24" s="55"/>
+    </row>
+    <row r="25" spans="1:10" ht="37" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33">
         <f>ROW()-1</f>
         <v>24</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="63"/>
-    </row>
-    <row r="26" ht="38" hidden="1" spans="1:10">
-      <c r="A26" s="35">
+      <c r="J25" s="55"/>
+    </row>
+    <row r="26" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33">
         <f>ROW()-1</f>
         <v>25</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="63"/>
-    </row>
-    <row r="27" s="20" customFormat="1" ht="38" hidden="1" spans="1:11">
-      <c r="A27" s="42">
+      <c r="J26" s="55"/>
+    </row>
+    <row r="27" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="37">
         <f>ROW()-1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="48" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="62" t="s">
+      <c r="I27" s="31"/>
+      <c r="J27" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K27"/>
-    </row>
-    <row r="28" ht="38" hidden="1" spans="1:10">
-      <c r="A28" s="35">
+    </row>
+    <row r="28" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
         <f>ROW()-1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="49" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="82" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="62"/>
-    </row>
-    <row r="29" s="21" customFormat="1" spans="1:10">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="64"/>
-    </row>
-    <row r="30" s="20" customFormat="1" spans="1:11">
-      <c r="A30" s="44">
+      <c r="I28" s="31"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="56"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="39">
         <f>ROW()-1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="65"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="35">
+      <c r="J30" s="55"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="33">
         <f>ROW()-1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="82" t="s">
+      <c r="G31" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="63"/>
-    </row>
-    <row r="32" ht="19" spans="1:10">
-      <c r="A32" s="35">
+      <c r="J31" s="55"/>
+    </row>
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="33">
         <f t="shared" ref="A32:A66" si="1">ROW()-1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="86" t="s">
+      <c r="F32" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="82" t="s">
+      <c r="G32" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="40" t="s">
+      <c r="I32" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="63"/>
-    </row>
-    <row r="33" ht="19" spans="1:10">
-      <c r="A33" s="35">
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="33">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="86" t="s">
+      <c r="F33" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="82" t="s">
+      <c r="G33" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="63"/>
-    </row>
-    <row r="34" ht="19" spans="1:10">
-      <c r="A34" s="35">
+      <c r="J33" s="55"/>
+    </row>
+    <row r="34" spans="1:11" ht="40" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="86" t="s">
+      <c r="F34" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="82" t="s">
+      <c r="G34" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="63"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="35">
+      <c r="J34" s="55"/>
+    </row>
+    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="82" t="s">
+      <c r="F35" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="82" t="s">
+      <c r="G35" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="63"/>
-    </row>
-    <row r="36" ht="19" spans="1:10">
-      <c r="A36" s="35">
+      <c r="J35" s="55"/>
+    </row>
+    <row r="36" spans="1:11" ht="40" x14ac:dyDescent="0.2">
+      <c r="A36" s="33">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="82" t="s">
+      <c r="F36" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="82" t="s">
+      <c r="G36" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="63"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="35">
+      <c r="J36" s="55"/>
+    </row>
+    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="33">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="82" t="s">
+      <c r="F37" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="82" t="s">
+      <c r="G37" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="63"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="35">
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="33">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="82" t="s">
+      <c r="F38" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="82" t="s">
+      <c r="G38" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H38" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="63"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="35">
+      <c r="J38" s="55"/>
+    </row>
+    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="33">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="82" t="s">
+      <c r="G39" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="63"/>
-    </row>
-    <row r="40" ht="42" spans="1:10">
-      <c r="A40" s="35">
+      <c r="J39" s="55"/>
+    </row>
+    <row r="40" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="33">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="82" t="s">
+      <c r="F40" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="82" t="s">
+      <c r="G40" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="I40" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="63"/>
-    </row>
-    <row r="41" ht="54" spans="1:10">
-      <c r="A41" s="35">
+      <c r="J40" s="55"/>
+    </row>
+    <row r="41" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="33">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="55" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="86" t="s">
+      <c r="F41" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="86" t="s">
+      <c r="G41" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="63"/>
-    </row>
-    <row r="42" ht="35" spans="1:10">
-      <c r="A42" s="35">
+      <c r="I41" s="31"/>
+      <c r="J41" s="55"/>
+    </row>
+    <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="33">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="55" t="s">
+      <c r="B42" s="34"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="86" t="s">
+      <c r="G42" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="63"/>
-    </row>
-    <row r="43" s="22" customFormat="1" spans="1:11">
-      <c r="A43" s="35">
+      <c r="H42" s="35"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="55"/>
+    </row>
+    <row r="43" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="87" t="s">
+      <c r="E43" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="57" t="s">
+      <c r="I43" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="J43" s="66"/>
+      <c r="J43" s="57"/>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="35">
+    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="33">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40" t="s">
+      <c r="B44" s="34"/>
+      <c r="C44" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F44" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J44" s="63"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="35">
+      <c r="J44" s="55"/>
+    </row>
+    <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="33">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J45" s="63"/>
-    </row>
-    <row r="46" s="22" customFormat="1" spans="1:11">
-      <c r="A46" s="35">
+      <c r="J45" s="55"/>
+    </row>
+    <row r="46" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="88" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="87" t="s">
+      <c r="E46" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="39" t="s">
+      <c r="H46" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I46" s="57" t="s">
+      <c r="I46" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="J46" s="66"/>
+      <c r="J46" s="57"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="35">
+    <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="33">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="89" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G47" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="40" t="s">
+      <c r="I47" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J47" s="63"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="35">
+      <c r="J47" s="55"/>
+    </row>
+    <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="33">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="39" t="s">
+      <c r="H48" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="40" t="s">
+      <c r="I48" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J48" s="63"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="35">
+      <c r="J48" s="55"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="33">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="39" t="s">
+      <c r="F49" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="I49" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J49" s="63"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="35">
+      <c r="J49" s="55"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="33">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40" t="s">
+      <c r="B50" s="34"/>
+      <c r="C50" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="G50" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="39" t="s">
+      <c r="H50" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J50" s="63"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="35">
+      <c r="J50" s="55"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="33">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40" t="s">
+      <c r="B51" s="34"/>
+      <c r="C51" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G51" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="I51" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J51" s="63"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="35">
+      <c r="J51" s="55"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="33">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="39" t="s">
+      <c r="G52" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I52" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J52" s="63"/>
-    </row>
-    <row r="53" ht="19" spans="1:10">
-      <c r="A53" s="35">
+      <c r="J52" s="55"/>
+    </row>
+    <row r="53" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="33">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="40" t="s">
+      <c r="B53" s="34"/>
+      <c r="C53" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="82" t="s">
+      <c r="E53" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H53" s="39" t="s">
+      <c r="H53" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J53" s="63"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="35">
+      <c r="J53" s="55"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="33">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G54" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="I54" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J54" s="63"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="35">
+      <c r="J54" s="55"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="33">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40" t="s">
+      <c r="B55" s="34"/>
+      <c r="C55" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F55" s="39" t="s">
+      <c r="F55" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="39" t="s">
+      <c r="H55" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="40" t="s">
+      <c r="I55" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J55" s="63"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="35">
+      <c r="J55" s="55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="33">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40" t="s">
+      <c r="B56" s="34"/>
+      <c r="C56" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="54" t="s">
+      <c r="E56" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="39" t="s">
+      <c r="G56" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H56" s="39" t="s">
+      <c r="H56" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J56" s="63"/>
-    </row>
-    <row r="57" ht="76" spans="1:10">
-      <c r="A57" s="35">
+      <c r="J56" s="55"/>
+    </row>
+    <row r="57" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="33">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40" t="s">
+      <c r="B57" s="34"/>
+      <c r="C57" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="G57" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I57" s="40" t="s">
+      <c r="I57" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J57" s="63"/>
-    </row>
-    <row r="58" ht="57" spans="1:10">
-      <c r="A58" s="35">
+      <c r="J57" s="55"/>
+    </row>
+    <row r="58" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="33">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40" t="s">
+      <c r="B58" s="34"/>
+      <c r="C58" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="F58" s="39" t="s">
+      <c r="F58" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="G58" s="39" t="s">
+      <c r="G58" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J58" s="63"/>
-    </row>
-    <row r="59" ht="51" spans="1:10">
-      <c r="A59" s="35">
+      <c r="J58" s="55"/>
+    </row>
+    <row r="59" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="33">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40" t="s">
+      <c r="B59" s="34"/>
+      <c r="C59" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="82" t="s">
+      <c r="F59" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="39" t="s">
+      <c r="G59" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H59" s="39" t="s">
+      <c r="H59" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I59" s="40" t="s">
+      <c r="I59" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J59" s="63"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="35">
+      <c r="J59" s="55"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="33">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="40" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="82" t="s">
+      <c r="F60" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="39" t="s">
+      <c r="G60" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="39" t="s">
+      <c r="H60" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I60" s="40" t="s">
+      <c r="I60" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J60" s="63"/>
-    </row>
-    <row r="61" ht="131" spans="1:10">
-      <c r="A61" s="35">
+      <c r="J60" s="55"/>
+    </row>
+    <row r="61" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="A61" s="33">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="40" t="s">
+      <c r="B61" s="34"/>
+      <c r="C61" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="G61" s="39" t="s">
+      <c r="G61" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H61" s="39" t="s">
+      <c r="H61" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I61" s="40" t="s">
+      <c r="I61" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J61" s="63"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="35">
+      <c r="J61" s="55"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="33">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40" t="s">
+      <c r="B62" s="34"/>
+      <c r="C62" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="G62" s="39" t="s">
+      <c r="G62" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H62" s="39" t="s">
+      <c r="H62" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I62" s="40" t="s">
+      <c r="I62" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J62" s="63"/>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="35">
+      <c r="J62" s="55"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="33">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="40" t="s">
+      <c r="B63" s="34"/>
+      <c r="C63" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E63" s="82" t="s">
+      <c r="E63" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="82" t="s">
+      <c r="F63" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="39" t="s">
+      <c r="G63" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H63" s="39" t="s">
+      <c r="H63" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I63" s="40" t="s">
+      <c r="I63" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="63"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="35">
+      <c r="J63" s="55"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="33">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="40" t="s">
+      <c r="B64" s="34"/>
+      <c r="C64" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="G64" s="39" t="s">
+      <c r="G64" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H64" s="39" t="s">
+      <c r="H64" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I64" s="40" t="s">
+      <c r="I64" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J64" s="63"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="35">
+      <c r="J64" s="55"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="33">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="40" t="s">
+      <c r="B65" s="34"/>
+      <c r="C65" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="G65" s="39" t="s">
+      <c r="G65" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I65" s="40" t="s">
+      <c r="I65" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J65" s="63"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="35">
+      <c r="J65" s="55"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="33">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="40" t="s">
+      <c r="B66" s="34"/>
+      <c r="C66" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="39" t="s">
+      <c r="D66" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="39" t="s">
+      <c r="F66" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="39" t="s">
+      <c r="G66" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H66" s="39" t="s">
+      <c r="H66" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="40" t="s">
+      <c r="I66" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J66" s="63"/>
-    </row>
-    <row r="67" ht="76" spans="1:10">
-      <c r="A67" s="35">
+      <c r="J66" s="55"/>
+    </row>
+    <row r="67" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A67" s="33">
         <f t="shared" ref="A67:A84" si="2">ROW()-1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="40" t="s">
+      <c r="B67" s="34"/>
+      <c r="C67" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G67" s="38" t="s">
+      <c r="G67" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H67" s="38" t="s">
+      <c r="H67" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I67" s="40" t="s">
+      <c r="I67" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J67" s="63"/>
-    </row>
-    <row r="68" ht="57" spans="1:10">
-      <c r="A68" s="35">
+      <c r="J67" s="55"/>
+    </row>
+    <row r="68" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="33">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="40" t="s">
+      <c r="B68" s="34"/>
+      <c r="C68" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E68" s="38" t="s">
+      <c r="E68" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="F68" s="39" t="s">
+      <c r="F68" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="38" t="s">
+      <c r="H68" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I68" s="40" t="s">
+      <c r="I68" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J68" s="63"/>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="35">
+      <c r="J68" s="55"/>
+    </row>
+    <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="33">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="40" t="s">
+      <c r="B69" s="34"/>
+      <c r="C69" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F69" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G69" s="39" t="s">
+      <c r="G69" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="39" t="s">
+      <c r="H69" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I69" s="40" t="s">
+      <c r="I69" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J69" s="63"/>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="35">
+      <c r="J69" s="55"/>
+    </row>
+    <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="33">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="40" t="s">
+      <c r="B70" s="34"/>
+      <c r="C70" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F70" s="38" t="s">
+      <c r="F70" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G70" s="39" t="s">
+      <c r="G70" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H70" s="39" t="s">
+      <c r="H70" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I70" s="40" t="s">
+      <c r="I70" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J70" s="63"/>
-    </row>
-    <row r="71" ht="32" spans="1:10">
-      <c r="A71" s="35">
+      <c r="J70" s="55"/>
+    </row>
+    <row r="71" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="33">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="38" t="s">
+      <c r="B71" s="34"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="F71" s="38" t="s">
+      <c r="F71" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H71" s="39" t="s">
+      <c r="H71" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I71" s="40"/>
-      <c r="J71" s="63"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="35">
+      <c r="I71" s="31"/>
+      <c r="J71" s="55"/>
+    </row>
+    <row r="72" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="33">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="40" t="s">
+      <c r="B72" s="34"/>
+      <c r="C72" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="F72" s="39" t="s">
+      <c r="F72" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="G72" s="39" t="s">
+      <c r="G72" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="39" t="s">
+      <c r="H72" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I72" s="40" t="s">
+      <c r="I72" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J72" s="63"/>
-    </row>
-    <row r="73" ht="64" spans="1:10">
-      <c r="A73" s="35">
+      <c r="J72" s="55"/>
+    </row>
+    <row r="73" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A73" s="33">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="40" t="s">
+      <c r="B73" s="34"/>
+      <c r="C73" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E73" s="86" t="s">
+      <c r="E73" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="G73" s="39" t="s">
+      <c r="G73" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H73" s="39" t="s">
+      <c r="H73" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I73" s="40" t="s">
+      <c r="I73" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J73" s="63"/>
-    </row>
-    <row r="74" ht="64" spans="1:10">
-      <c r="A74" s="35">
+      <c r="J73" s="55"/>
+    </row>
+    <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A74" s="33">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="40" t="s">
+      <c r="B74" s="34"/>
+      <c r="C74" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="86" t="s">
+      <c r="D74" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="86" t="s">
+      <c r="E74" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G74" s="39" t="s">
+      <c r="G74" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H74" s="39" t="s">
+      <c r="H74" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I74" s="40" t="s">
+      <c r="I74" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J74" s="63"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="35">
+      <c r="J74" s="55"/>
+    </row>
+    <row r="75" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="33">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="40" t="s">
+      <c r="B75" s="34"/>
+      <c r="C75" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="86" t="s">
+      <c r="D75" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E75" s="86" t="s">
+      <c r="E75" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="G75" s="39" t="s">
+      <c r="G75" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I75" s="40" t="s">
+      <c r="I75" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J75" s="63"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="35">
+      <c r="J75" s="55"/>
+    </row>
+    <row r="76" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="33">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="40" t="s">
+      <c r="B76" s="34"/>
+      <c r="C76" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="86" t="s">
+      <c r="D76" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="E76" s="86" t="s">
+      <c r="E76" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="F76" s="39" t="s">
+      <c r="F76" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="G76" s="39" t="s">
+      <c r="G76" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="39" t="s">
+      <c r="H76" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I76" s="40" t="s">
+      <c r="I76" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J76" s="63"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="35">
+      <c r="J76" s="55"/>
+    </row>
+    <row r="77" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="33">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="40" t="s">
+      <c r="B77" s="34"/>
+      <c r="C77" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="86" t="s">
+      <c r="D77" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="86" t="s">
+      <c r="E77" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="G77" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="I77" s="40" t="s">
+      <c r="I77" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J77" s="63"/>
-    </row>
-    <row r="78" ht="32" spans="1:10">
-      <c r="A78" s="35">
+      <c r="J77" s="55"/>
+    </row>
+    <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="33">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="40" t="s">
+      <c r="B78" s="34"/>
+      <c r="C78" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="86" t="s">
+      <c r="D78" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="E78" s="86" t="s">
+      <c r="E78" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F78" s="39" t="s">
+      <c r="F78" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G78" s="39" t="s">
+      <c r="G78" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="39" t="s">
+      <c r="H78" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="I78" s="40" t="s">
+      <c r="I78" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J78" s="63"/>
-    </row>
-    <row r="79" s="23" customFormat="1" ht="19" spans="1:11">
-      <c r="A79" s="35">
+      <c r="J78" s="55"/>
+    </row>
+    <row r="79" spans="1:11" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="33">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B79" s="67"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="90" t="s">
+      <c r="B79" s="58"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="69"/>
-      <c r="F79" s="67" t="s">
+      <c r="E79" s="60"/>
+      <c r="F79" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="G79" s="67" t="s">
+      <c r="G79" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H79" s="67" t="s">
+      <c r="H79" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="68"/>
-      <c r="J79" s="73" t="s">
+      <c r="I79" s="59"/>
+      <c r="J79" s="64" t="s">
         <v>183</v>
       </c>
       <c r="K79"/>
     </row>
-    <row r="80" ht="57" spans="1:10">
-      <c r="A80" s="35">
+    <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="33">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="40" t="s">
+      <c r="B80" s="34"/>
+      <c r="C80" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E80" s="86" t="s">
+      <c r="E80" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39" t="s">
+      <c r="F80" s="34"/>
+      <c r="G80" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H80" s="39" t="s">
+      <c r="H80" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I80" s="40" t="s">
+      <c r="I80" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J80" s="63"/>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="35">
+      <c r="J80" s="55"/>
+    </row>
+    <row r="81" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="33">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="40" t="s">
+      <c r="B81" s="34"/>
+      <c r="C81" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="86" t="s">
+      <c r="D81" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="E81" s="86" t="s">
+      <c r="E81" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="F81" s="39" t="s">
+      <c r="F81" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="G81" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I81" s="40" t="s">
+      <c r="I81" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J81" s="63"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="35">
+      <c r="J81" s="55"/>
+    </row>
+    <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="33">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="40" t="s">
+      <c r="B82" s="34"/>
+      <c r="C82" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D82" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="82" t="s">
+      <c r="E82" s="35"/>
+      <c r="F82" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G82" s="39" t="s">
+      <c r="G82" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="H82" s="39" t="s">
+      <c r="H82" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I82" s="40" t="s">
+      <c r="I82" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="63"/>
-    </row>
-    <row r="83" s="23" customFormat="1" spans="1:11">
-      <c r="A83" s="35">
+      <c r="J82" s="55"/>
+    </row>
+    <row r="83" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="33">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="91" t="s">
+      <c r="B83" s="58"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="G83" s="67" t="s">
+      <c r="G83" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H83" s="67" t="s">
+      <c r="H83" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="I83" s="68" t="s">
+      <c r="I83" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J83" s="73" t="s">
+      <c r="J83" s="64" t="s">
         <v>183</v>
       </c>
       <c r="K83"/>
     </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="35">
+    <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="33">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="40" t="s">
+      <c r="B84" s="34"/>
+      <c r="C84" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D84" s="47" t="s">
+      <c r="D84" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="E84" s="82" t="s">
+      <c r="E84" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="F84" s="82" t="s">
+      <c r="F84" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="G84" s="39" t="s">
+      <c r="G84" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="H84" s="39" t="s">
+      <c r="H84" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I84" s="40" t="s">
+      <c r="I84" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="63"/>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="42"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="40" t="s">
+      <c r="J84" s="55"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="37"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="39" t="s">
+      <c r="D85" s="42"/>
+      <c r="E85" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="F85" s="39" t="s">
+      <c r="F85" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="G85" s="39" t="s">
+      <c r="G85" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="H85" s="39" t="s">
+      <c r="H85" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I85" s="40" t="s">
+      <c r="I85" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J85" s="63"/>
-    </row>
-    <row r="86" ht="216" spans="1:10">
-      <c r="A86" s="35">
+      <c r="J85" s="55"/>
+    </row>
+    <row r="86" spans="1:11" ht="272" x14ac:dyDescent="0.2">
+      <c r="A86" s="33">
         <f t="shared" ref="A86:A130" si="3">ROW()-1</f>
         <v>85</v>
       </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="40" t="s">
+      <c r="B86" s="34"/>
+      <c r="C86" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D86" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="E86" s="82" t="s">
+      <c r="E86" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="F86" s="82" t="s">
+      <c r="F86" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="G86" s="39" t="s">
+      <c r="G86" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="H86" s="38" t="s">
+      <c r="H86" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="I86" s="40" t="s">
+      <c r="I86" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J86" s="63"/>
-    </row>
-    <row r="87" ht="19" spans="1:10">
-      <c r="A87" s="35">
+      <c r="J86" s="55"/>
+    </row>
+    <row r="87" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="33">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="40" t="s">
+      <c r="B87" s="34"/>
+      <c r="C87" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="D87" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="E87" s="39"/>
-      <c r="F87" s="82" t="s">
+      <c r="E87" s="34"/>
+      <c r="F87" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="G87" s="39" t="s">
+      <c r="G87" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="H87" s="38" t="s">
+      <c r="H87" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="I87" s="40" t="s">
+      <c r="I87" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="63"/>
-    </row>
-    <row r="88" ht="38" spans="1:10">
-      <c r="A88" s="35">
+      <c r="J87" s="55"/>
+    </row>
+    <row r="88" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="33">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="40" t="s">
+      <c r="B88" s="34"/>
+      <c r="C88" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="82" t="s">
+      <c r="D88" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="E88" s="39"/>
-      <c r="F88" s="82" t="s">
+      <c r="E88" s="34"/>
+      <c r="F88" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="G88" s="39" t="s">
+      <c r="G88" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="H88" s="38" t="s">
+      <c r="H88" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="I88" s="40" t="s">
+      <c r="I88" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J88" s="63"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="35">
+      <c r="J88" s="55"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="33">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="40" t="s">
+      <c r="B89" s="34"/>
+      <c r="C89" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="82" t="s">
+      <c r="D89" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="E89" s="39"/>
-      <c r="F89" s="82" t="s">
+      <c r="E89" s="34"/>
+      <c r="F89" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="G89" s="39" t="s">
+      <c r="G89" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="H89" s="38"/>
-      <c r="I89" s="40" t="s">
+      <c r="H89" s="35"/>
+      <c r="I89" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="63"/>
-    </row>
-    <row r="90" s="23" customFormat="1" ht="19" spans="1:11">
-      <c r="A90" s="35">
+      <c r="J89" s="55"/>
+    </row>
+    <row r="90" spans="1:11" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="33">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="68" t="s">
+      <c r="B90" s="58"/>
+      <c r="C90" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="91" t="s">
+      <c r="D90" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="E90" s="67"/>
-      <c r="F90" s="91" t="s">
+      <c r="E90" s="58"/>
+      <c r="F90" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="G90" s="67" t="s">
+      <c r="G90" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="H90" s="69" t="s">
+      <c r="H90" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="I90" s="68" t="s">
+      <c r="I90" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J90" s="73" t="s">
+      <c r="J90" s="64" t="s">
         <v>9</v>
       </c>
       <c r="K90"/>
     </row>
-    <row r="91" ht="84" spans="1:10">
-      <c r="A91" s="35">
+    <row r="91" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A91" s="33">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="40" t="s">
+      <c r="B91" s="34"/>
+      <c r="C91" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="47" t="s">
+      <c r="D91" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="E91" s="92" t="s">
+      <c r="E91" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F91" s="82" t="s">
+      <c r="F91" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G91" s="39" t="s">
+      <c r="G91" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="H91" s="39" t="s">
+      <c r="H91" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="I91" s="40" t="s">
+      <c r="I91" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J91" s="63"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="35">
+      <c r="J91" s="55"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="33">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="39" t="s">
+      <c r="B92" s="34"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="E92" s="39"/>
-      <c r="F92" s="82" t="s">
+      <c r="E92" s="34"/>
+      <c r="F92" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39" t="s">
+      <c r="G92" s="34"/>
+      <c r="H92" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I92" s="40"/>
-      <c r="J92" s="63"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="35">
+      <c r="I92" s="31"/>
+      <c r="J92" s="55"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="33">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="39" t="s">
+      <c r="B93" s="34"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39" t="s">
+      <c r="E93" s="34"/>
+      <c r="F93" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39" t="s">
+      <c r="G93" s="34"/>
+      <c r="H93" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="I93" s="40"/>
-      <c r="J93" s="63"/>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="35">
+      <c r="I93" s="31"/>
+      <c r="J93" s="55"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="33">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="39" t="s">
+      <c r="B94" s="34"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39" t="s">
+      <c r="E94" s="34"/>
+      <c r="F94" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39" t="s">
+      <c r="G94" s="34"/>
+      <c r="H94" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="I94" s="40"/>
-      <c r="J94" s="63"/>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="35">
+      <c r="I94" s="31"/>
+      <c r="J94" s="55"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="33">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="39" t="s">
+      <c r="B95" s="34"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39" t="s">
+      <c r="E95" s="34"/>
+      <c r="F95" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G95" s="39" t="s">
+      <c r="G95" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="39" t="s">
+      <c r="H95" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I95" s="40"/>
-      <c r="J95" s="63"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="35">
+      <c r="I95" s="31"/>
+      <c r="J95" s="55"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="33">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="B96" s="39"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="39" t="s">
+      <c r="B96" s="34"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39" t="s">
+      <c r="E96" s="34"/>
+      <c r="F96" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G96" s="39" t="s">
+      <c r="G96" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="39" t="s">
+      <c r="H96" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I96" s="40"/>
-      <c r="J96" s="63"/>
-    </row>
-    <row r="97" ht="48" spans="1:10">
-      <c r="A97" s="35">
+      <c r="I96" s="31"/>
+      <c r="J96" s="55"/>
+    </row>
+    <row r="97" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A97" s="33">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="B97" s="39"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="38" t="s">
+      <c r="B97" s="34"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="E97" s="38"/>
-      <c r="F97" s="39" t="s">
+      <c r="E97" s="35"/>
+      <c r="F97" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G97" s="39" t="s">
+      <c r="G97" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H97" s="39" t="s">
+      <c r="H97" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I97" s="40"/>
-      <c r="J97" s="63"/>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="35">
+      <c r="I97" s="31"/>
+      <c r="J97" s="55"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="33">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="39" t="s">
+      <c r="B98" s="34"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39" t="s">
+      <c r="E98" s="34"/>
+      <c r="F98" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39" t="s">
+      <c r="G98" s="34"/>
+      <c r="H98" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I98" s="40"/>
-      <c r="J98" s="63"/>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="35">
+      <c r="I98" s="31"/>
+      <c r="J98" s="55"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="33">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="B99" s="39"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="39" t="s">
+      <c r="B99" s="34"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39" t="s">
+      <c r="E99" s="34"/>
+      <c r="F99" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39" t="s">
+      <c r="G99" s="34"/>
+      <c r="H99" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I99" s="40"/>
-      <c r="J99" s="63"/>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="35">
+      <c r="I99" s="31"/>
+      <c r="J99" s="55"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="33">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="B100" s="39"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="39" t="s">
+      <c r="B100" s="34"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39" t="s">
+      <c r="E100" s="34"/>
+      <c r="F100" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39" t="s">
+      <c r="G100" s="34"/>
+      <c r="H100" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="I100" s="40"/>
-      <c r="J100" s="63"/>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="35">
+      <c r="I100" s="31"/>
+      <c r="J100" s="55"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="33">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="39" t="s">
+      <c r="B101" s="34"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39" t="s">
+      <c r="E101" s="34"/>
+      <c r="F101" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G101" s="39" t="s">
+      <c r="G101" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="H101" s="39" t="s">
+      <c r="H101" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I101" s="40"/>
-      <c r="J101" s="63"/>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="35">
+      <c r="I101" s="31"/>
+      <c r="J101" s="55"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="33">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="B102" s="39"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="39" t="s">
+      <c r="B102" s="34"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39" t="s">
+      <c r="E102" s="34"/>
+      <c r="F102" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G102" s="39" t="s">
+      <c r="G102" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="H102" s="39" t="s">
+      <c r="H102" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="I102" s="40"/>
-      <c r="J102" s="63"/>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="35">
+      <c r="I102" s="31"/>
+      <c r="J102" s="55"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="33">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="B103" s="39"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="39" t="s">
+      <c r="B103" s="34"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39" t="s">
+      <c r="E103" s="34"/>
+      <c r="F103" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G103" s="39" t="s">
+      <c r="G103" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="H103" s="39" t="s">
+      <c r="H103" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="I103" s="40"/>
-      <c r="J103" s="63"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="35">
+      <c r="I103" s="31"/>
+      <c r="J103" s="55"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="33">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="63"/>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="35">
+      <c r="B104" s="34"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="55"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="33">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="B105" s="39"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="39" t="s">
+      <c r="B105" s="34"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39" t="s">
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I105" s="40"/>
-      <c r="J105" s="63"/>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="35">
+      <c r="I105" s="31"/>
+      <c r="J105" s="55"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="33">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B106" s="39"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="39" t="s">
+      <c r="B106" s="34"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39" t="s">
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I106" s="40"/>
-      <c r="J106" s="63"/>
-    </row>
-    <row r="107" ht="38" spans="1:11">
-      <c r="A107" s="35">
+      <c r="I106" s="31"/>
+      <c r="J106" s="55"/>
+    </row>
+    <row r="107" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="33">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B107" s="39"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="38" t="s">
+      <c r="B107" s="34"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="E107" s="38"/>
-      <c r="F107" s="39" t="s">
+      <c r="E107" s="35"/>
+      <c r="F107" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G107" s="39" t="s">
+      <c r="G107" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="H107" s="38" t="s">
+      <c r="H107" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="I107" s="40"/>
-      <c r="J107" s="63"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="55"/>
       <c r="K107" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="108" ht="38" spans="1:11">
-      <c r="A108" s="35">
+    <row r="108" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="33">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B108" s="39"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="38" t="s">
+      <c r="B108" s="34"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="E108" s="38"/>
-      <c r="F108" s="39" t="s">
+      <c r="E108" s="35"/>
+      <c r="F108" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G108" s="39" t="s">
+      <c r="G108" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="H108" s="38" t="s">
+      <c r="H108" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="I108" s="40"/>
-      <c r="J108" s="63"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="55"/>
       <c r="K108" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="33">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="39" t="s">
+      <c r="B109" s="34"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39" t="s">
+      <c r="E109" s="34"/>
+      <c r="F109" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39" t="s">
+      <c r="G109" s="34"/>
+      <c r="H109" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I109" s="40"/>
-      <c r="J109" s="63"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="35">
+      <c r="I109" s="31"/>
+      <c r="J109" s="55"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="33">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B110" s="39"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="39" t="s">
+      <c r="B110" s="34"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39" t="s">
+      <c r="E110" s="34"/>
+      <c r="F110" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39" t="s">
+      <c r="G110" s="34"/>
+      <c r="H110" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I110" s="40"/>
-      <c r="J110" s="63"/>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="35">
+      <c r="I110" s="31"/>
+      <c r="J110" s="55"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="33">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B111" s="39"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="39" t="s">
+      <c r="B111" s="34"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39" t="s">
+      <c r="E111" s="34"/>
+      <c r="F111" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39" t="s">
+      <c r="G111" s="34"/>
+      <c r="H111" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I111" s="40"/>
-      <c r="J111" s="63"/>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="35">
+      <c r="I111" s="31"/>
+      <c r="J111" s="55"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="33">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B112" s="39"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="39" t="s">
+      <c r="B112" s="34"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="63"/>
-    </row>
-    <row r="113" s="24" customFormat="1" spans="1:11">
-      <c r="A113" s="35">
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="55"/>
+    </row>
+    <row r="113" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="33">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B113" s="71"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="71"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="72"/>
-      <c r="J113" s="74"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="65"/>
       <c r="K113"/>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="33">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B114" s="39"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="39" t="s">
+      <c r="B114" s="34"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39" t="s">
+      <c r="E114" s="34"/>
+      <c r="F114" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="G114" s="39" t="s">
+      <c r="G114" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="H114" s="39" t="s">
+      <c r="H114" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="I114" s="40"/>
-      <c r="J114" s="63"/>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="35">
+      <c r="I114" s="31"/>
+      <c r="J114" s="55"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="33">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B115" s="39"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="39" t="s">
+      <c r="B115" s="34"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39" t="s">
+      <c r="E115" s="34"/>
+      <c r="F115" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="G115" s="39" t="s">
+      <c r="G115" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="H115" s="39" t="s">
+      <c r="H115" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="I115" s="40"/>
-      <c r="J115" s="63"/>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="35">
+      <c r="I115" s="31"/>
+      <c r="J115" s="55"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="33">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B116" s="39"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="39" t="s">
+      <c r="B116" s="34"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39" t="s">
+      <c r="E116" s="34"/>
+      <c r="F116" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="G116" s="39" t="s">
+      <c r="G116" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="H116" s="39" t="s">
+      <c r="H116" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="I116" s="40"/>
-      <c r="J116" s="63"/>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="42">
+      <c r="I116" s="31"/>
+      <c r="J116" s="55"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="37">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B117" s="39"/>
-      <c r="C117" s="40" t="s">
+      <c r="B117" s="34"/>
+      <c r="C117" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="39" t="s">
+      <c r="D117" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="E117" s="39" t="s">
+      <c r="E117" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="F117" s="39" t="s">
+      <c r="F117" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="G117" s="39" t="s">
+      <c r="G117" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="H117" s="39" t="s">
+      <c r="H117" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="I117" s="40" t="s">
+      <c r="I117" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J117" s="63" t="s">
+      <c r="J117" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="33">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B118" s="39"/>
-      <c r="C118" s="40"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39" t="s">
+      <c r="B118" s="34"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="F118" s="39" t="s">
+      <c r="F118" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="G118" s="39" t="s">
+      <c r="G118" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="H118" s="39" t="s">
+      <c r="H118" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="I118" s="40"/>
-      <c r="J118" s="63"/>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="35">
+      <c r="I118" s="31"/>
+      <c r="J118" s="55"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="33">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B119" s="39"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39" t="s">
+      <c r="B119" s="34"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F119" s="39" t="s">
+      <c r="F119" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="G119" s="39" t="s">
+      <c r="G119" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="H119" s="39" t="s">
+      <c r="H119" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="I119" s="40"/>
-      <c r="J119" s="63"/>
-    </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="35">
+      <c r="I119" s="31"/>
+      <c r="J119" s="55"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="33">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B120" s="39"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="40"/>
-      <c r="J120" s="63"/>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="35">
+      <c r="B120" s="34"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="55"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="33">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B121" s="39"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="40"/>
-      <c r="J121" s="63"/>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="35">
+      <c r="B121" s="34"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="55"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="33">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B122" s="39"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="63"/>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="35">
+      <c r="B122" s="34"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="55"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="33">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B123" s="39"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="63"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="35">
+      <c r="B123" s="34"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="55"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="33">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="63"/>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="35">
+      <c r="B124" s="34"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="31"/>
+      <c r="J124" s="55"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="33">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="63"/>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="35">
+      <c r="B125" s="34"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="55"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="33">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="40"/>
-      <c r="J126" s="63"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="35">
+      <c r="B126" s="34"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="55"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="33">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="40"/>
-      <c r="J127" s="63"/>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="35">
+      <c r="B127" s="34"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="55"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="33">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B128" s="39"/>
-      <c r="C128" s="40"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="39"/>
-      <c r="F128" s="39"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="40"/>
-      <c r="J128" s="63"/>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129" s="35">
+      <c r="B128" s="34"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="55"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="33">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B129" s="39"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="63"/>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="35">
+      <c r="B129" s="34"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="55"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="33">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="63"/>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="35">
+      <c r="B130" s="34"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="55"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="33">
         <f t="shared" ref="A131:A148" si="4">ROW()-1</f>
         <v>130</v>
       </c>
-      <c r="B131" s="39"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="63"/>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="35">
+      <c r="B131" s="34"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="34"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="55"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="33">
         <f t="shared" si="4"/>
         <v>131</v>
       </c>
-      <c r="B132" s="39"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="63"/>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="35">
+      <c r="B132" s="34"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="55"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="33">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="B133" s="39"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="63"/>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="35">
+      <c r="B133" s="34"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="55"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="33">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="B134" s="39"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="40"/>
-      <c r="J134" s="63"/>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="35">
+      <c r="B134" s="34"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="55"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="33">
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="B135" s="39"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="39"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="63"/>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="35">
+      <c r="B135" s="34"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="55"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="33">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="B136" s="39"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="63"/>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="35">
+      <c r="B136" s="34"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="31"/>
+      <c r="J136" s="55"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="33">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="B137" s="39"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="63"/>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="35">
+      <c r="B137" s="34"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="31"/>
+      <c r="J137" s="55"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="33">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="B138" s="39"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="63"/>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="35">
+      <c r="B138" s="34"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="55"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="33">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="B139" s="39"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
-      <c r="F139" s="39"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="63"/>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140" s="35">
+      <c r="B139" s="34"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="31"/>
+      <c r="J139" s="55"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="33">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="B140" s="39"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="63"/>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141" s="35">
+      <c r="B140" s="34"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="31"/>
+      <c r="J140" s="55"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="33">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="B141" s="39"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="40"/>
-      <c r="J141" s="63"/>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" s="35">
+      <c r="B141" s="34"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="31"/>
+      <c r="J141" s="55"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="33">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-      <c r="B142" s="39"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="63"/>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143" s="35">
+      <c r="B142" s="34"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="31"/>
+      <c r="J142" s="55"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="33">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="B143" s="39"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="40"/>
-      <c r="J143" s="63"/>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144" s="35">
+      <c r="B143" s="34"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="31"/>
+      <c r="J143" s="55"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="33">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="B144" s="39"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="40"/>
-      <c r="J144" s="63"/>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145" s="35">
+      <c r="B144" s="34"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="31"/>
+      <c r="J144" s="55"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="33">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="B145" s="39"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="40"/>
-      <c r="J145" s="63"/>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="35">
+      <c r="B145" s="34"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="31"/>
+      <c r="J145" s="55"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="33">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="B146" s="39"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="40"/>
-      <c r="J146" s="63"/>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="35">
+      <c r="B146" s="34"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="55"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="33">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="B147" s="39"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="40"/>
-      <c r="J147" s="63"/>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="35">
+      <c r="B147" s="34"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="55"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="33">
         <f t="shared" si="4"/>
         <v>147</v>
       </c>
-      <c r="B148" s="39"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
-      <c r="F148" s="39"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="63"/>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="A149" s="35"/>
-      <c r="B149" s="39"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="39"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="63"/>
-    </row>
-    <row r="150" ht="16.75" spans="1:10">
-      <c r="A150" s="75"/>
-      <c r="B150" s="76"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="76"/>
-      <c r="E150" s="76"/>
-      <c r="F150" s="76"/>
-      <c r="G150" s="76"/>
-      <c r="H150" s="76"/>
-      <c r="I150" s="77"/>
-      <c r="J150" s="78"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="55"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="33"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
+      <c r="F149" s="34"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="31"/>
+      <c r="J149" s="55"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="66"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="68"/>
+      <c r="J150" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J28">
+  <autoFilter ref="A1:J28" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="equal" val="layout&#10;Overdraw"/>
-        <customFilter operator="equal" val="Overdraw"/>
-      </customFilters>
+      <filters>
+        <filter val="layout_x000a_Overdraw"/>
+        <filter val="Overdraw"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="K107" r:id="rId1" display="https://developer.android.google.cn/about/versions/oreo/background"/>
-    <hyperlink ref="K108" r:id="rId1" display="https://developer.android.google.cn/about/versions/oreo/background"/>
-    <hyperlink ref="D1" location="Homepage!A1" display="Do"/>
+    <hyperlink ref="K107" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K108" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D1" location="Homepage!A1" display="Do" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.8285714285714" customWidth="1"/>
-    <col min="2" max="2" width="15.8285714285714" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="79.1642857142857" customWidth="1"/>
+    <col min="4" max="4" width="79.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>255</v>
       </c>
       <c r="B1" t="s">
@@ -6332,8 +5720,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>255</v>
       </c>
       <c r="B2" t="s">
@@ -6343,51 +5731,51 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="4:4">
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4">
+    <row r="5" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -6397,26 +5785,26 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
@@ -6429,8 +5817,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
@@ -6439,42 +5827,40 @@
       <c r="C11" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>271</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://developer.android.google.cn/guide/components/activities/process-lifecycle"/>
-    <hyperlink ref="D7" r:id="rId2" display="https://developer.android.google.cn/topic/performance/vitals/launch-time"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://github.com/YingVickyCao/YingVickyCao.github.io/tree/master/img/android"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://developer.android.google.cn/studio/profile/inspect-gpu-rendering#debug_overdraw"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://www.jianshu.com/p/da80a0834aae"/>
-    <hyperlink ref="D11" r:id="rId6" display="https://developer.android.google.cn/training/constraint-layout/"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6642857142857" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6642857142857" style="7"/>
-    <col min="2" max="2" width="9.16428571428571" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="7"/>
+    <col min="2" max="2" width="9.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.6642857142857" style="7"/>
+    <col min="4" max="16384" width="10.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>272</v>
       </c>
@@ -6503,7 +5889,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>198</v>
       </c>
@@ -6532,7 +5918,7 @@
         <v>16016</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>277</v>
       </c>
@@ -6561,7 +5947,7 @@
         <v>10627</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>198</v>
       </c>
@@ -6590,7 +5976,7 @@
         <v>9774632</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>277</v>
       </c>
@@ -6619,7 +6005,7 @@
         <v>6257528</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>198</v>
       </c>
@@ -6648,7 +6034,7 @@
         <v>16397</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>277</v>
       </c>
@@ -6677,7 +6063,7 @@
         <v>67165</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>198</v>
       </c>
@@ -6706,7 +6092,7 @@
         <v>9679631</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>277</v>
       </c>
@@ -6735,7 +6121,7 @@
         <v>6785831</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>198</v>
       </c>
@@ -6764,7 +6150,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>277</v>
       </c>
@@ -6793,7 +6179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>198</v>
       </c>
@@ -6822,7 +6208,7 @@
         <v>6485263</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>277</v>
       </c>
@@ -6851,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>198</v>
       </c>
@@ -6880,7 +6266,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>277</v>
       </c>
@@ -6909,7 +6295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>198</v>
       </c>
@@ -6938,7 +6324,7 @@
         <v>-6198802</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>277</v>
       </c>
@@ -6968,28 +6354,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8285714285714" defaultRowHeight="16" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6642857142857" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.8285714285714" style="2"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" ht="32" spans="1:3">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>282</v>
       </c>
@@ -7000,7 +6384,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>285</v>
       </c>
@@ -7011,7 +6395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>286</v>
       </c>
@@ -7022,7 +6406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>287</v>
       </c>
@@ -7034,7 +6418,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>